--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/26.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/26.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2725604523239234</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.602426904261762</v>
+        <v>-1.601302267599593</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1489865330381949</v>
+        <v>0.150636105077318</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2446504648931663</v>
+        <v>-0.2448975858952105</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2862105892744649</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.535391790914248</v>
+        <v>-1.534585106114581</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09798044341244609</v>
+        <v>0.099817323727004</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2481463613615752</v>
+        <v>-0.2482203402602763</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2959018889412911</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491480592477762</v>
+        <v>-1.491050885257647</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09390215986915601</v>
+        <v>0.09569024559095358</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2577085275234768</v>
+        <v>-0.2581917513937161</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2917373221754974</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.561191538331488</v>
+        <v>-1.560343929034667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1201898532139988</v>
+        <v>0.1231867856209553</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2352708849493355</v>
+        <v>-0.2354818035115898</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2763216195133164</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.595267478288526</v>
+        <v>-1.594016920096653</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1054334239518048</v>
+        <v>0.1088144170243587</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2607574025614363</v>
+        <v>-0.2612500705464034</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2563862102803627</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.481927083421028</v>
+        <v>-1.48050259611625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1182789940007398</v>
+        <v>0.1226154166799232</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2525599109777023</v>
+        <v>-0.2531297058996131</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2377087785750001</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.267108888793713</v>
+        <v>-1.264677029251303</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1553172379440662</v>
+        <v>0.1600392953079683</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2580343494815861</v>
+        <v>-0.2592148638225616</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2233424778840197</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.008205566617009</v>
+        <v>-1.006152258673272</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1768923180397348</v>
+        <v>0.1824407354423197</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2548343686079818</v>
+        <v>-0.2564902367235901</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2151121849639996</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5951310065567053</v>
+        <v>-0.5927526636644199</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1660520483513369</v>
+        <v>0.1716555564231674</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1635947762226661</v>
+        <v>-0.1652270340514549</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2108365408740679</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2208575918555851</v>
+        <v>-0.2187515542712848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1361551291613517</v>
+        <v>0.14138087264407</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1276252912627028</v>
+        <v>-0.1291819961736692</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2032790170500129</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2408683252250012</v>
+        <v>0.2428799216620235</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1003084176928498</v>
+        <v>0.1055719376344793</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03809193560487707</v>
+        <v>-0.03892144368180253</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1800846585159813</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7655172306987039</v>
+        <v>0.7687675801841898</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008826198082533382</v>
+        <v>-0.004570050378536321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05558738641845466</v>
+        <v>0.05503175766863552</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1328832821344812</v>
       </c>
       <c r="E14" t="n">
-        <v>1.310700789628895</v>
+        <v>1.314267516957763</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2328154151201065</v>
+        <v>-0.228400291484858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1591389563705843</v>
+        <v>0.1592900622062292</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.05989731200157245</v>
       </c>
       <c r="E15" t="n">
-        <v>1.872380068950318</v>
+        <v>1.875842911017179</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4449066216197676</v>
+        <v>-0.4400240143054929</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2926472582393086</v>
+        <v>0.2929321557002641</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.03512137582567516</v>
       </c>
       <c r="E16" t="n">
-        <v>2.345127267918252</v>
+        <v>2.348245399797548</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6699819118510382</v>
+        <v>-0.6650347697527901</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4365078838688276</v>
+        <v>0.4372335066837472</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1434484718146036</v>
       </c>
       <c r="E17" t="n">
-        <v>2.801172549990064</v>
+        <v>2.803864122687488</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8837258384280651</v>
+        <v>-0.8791871542917945</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5551212427926835</v>
+        <v>0.5566810957418925</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2569590889222819</v>
       </c>
       <c r="E18" t="n">
-        <v>3.225562733513398</v>
+        <v>3.226529181253877</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.211376019746698</v>
+        <v>-1.207392964360247</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6766780174733718</v>
+        <v>0.6782095380783973</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3709585865198974</v>
       </c>
       <c r="E19" t="n">
-        <v>3.600193450555053</v>
+        <v>3.600671952367929</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.509863561795433</v>
+        <v>-1.507230227805497</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8375049952113909</v>
+        <v>0.8391907696903038</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4817897701297073</v>
       </c>
       <c r="E20" t="n">
-        <v>3.727193183357199</v>
+        <v>3.726396729681821</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.844928947194513</v>
+        <v>-1.84312197324326</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013064791924784</v>
+        <v>1.015460449027404</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5871271854975518</v>
       </c>
       <c r="E21" t="n">
-        <v>3.978041462680647</v>
+        <v>3.976171527964542</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.080662707905672</v>
+        <v>-2.080235361714239</v>
       </c>
       <c r="G21" t="n">
-        <v>1.180354692174864</v>
+        <v>1.1832540353963</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6861743163080531</v>
       </c>
       <c r="E22" t="n">
-        <v>4.182194890751589</v>
+        <v>4.181497600280853</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.376036053122913</v>
+        <v>-2.375275014877764</v>
       </c>
       <c r="G22" t="n">
-        <v>1.320322768517406</v>
+        <v>1.323658115035443</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7784558065694249</v>
       </c>
       <c r="E23" t="n">
-        <v>4.406997875674874</v>
+        <v>4.406300585204138</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.508589712394568</v>
+        <v>-2.507464288722838</v>
       </c>
       <c r="G23" t="n">
-        <v>1.490530900218378</v>
+        <v>1.494664274430913</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8641776764277967</v>
       </c>
       <c r="E24" t="n">
-        <v>4.535152938512056</v>
+        <v>4.533866964889953</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.624145539175298</v>
+        <v>-2.622048158696165</v>
       </c>
       <c r="G24" t="n">
-        <v>1.594066729979294</v>
+        <v>1.59865971777525</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9438305686447204</v>
       </c>
       <c r="E25" t="n">
-        <v>4.676004039581647</v>
+        <v>4.67436076361901</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.819552929998732</v>
+        <v>-2.81750434411236</v>
       </c>
       <c r="G25" t="n">
-        <v>1.65724313545094</v>
+        <v>1.661845567361623</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.016486445735773</v>
       </c>
       <c r="E26" t="n">
-        <v>4.78854955479289</v>
+        <v>4.787235248826603</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.909293269171009</v>
+        <v>-2.907437500626996</v>
       </c>
       <c r="G26" t="n">
-        <v>1.700317742724454</v>
+        <v>1.704762772723008</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.079704174922109</v>
       </c>
       <c r="E27" t="n">
-        <v>4.897460659853047</v>
+        <v>4.896541432686208</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.981726481095024</v>
+        <v>-2.979653497912271</v>
       </c>
       <c r="G27" t="n">
-        <v>1.750302293940479</v>
+        <v>1.75498657484547</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.130248870369911</v>
       </c>
       <c r="E28" t="n">
-        <v>4.895856734368443</v>
+        <v>4.895929139248022</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069817248228178</v>
+        <v>-3.068543079749485</v>
       </c>
       <c r="G28" t="n">
-        <v>1.790417745265948</v>
+        <v>1.795944126400835</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.165050565893572</v>
       </c>
       <c r="E29" t="n">
-        <v>4.903325455099014</v>
+        <v>4.904493377287019</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.08264786509546</v>
+        <v>-3.082174085339949</v>
       </c>
       <c r="G29" t="n">
-        <v>1.721888100762759</v>
+        <v>1.727403463763797</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.1817449767549</v>
       </c>
       <c r="E30" t="n">
-        <v>4.844564173262617</v>
+        <v>4.846245225684166</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.07213105633649</v>
+        <v>-3.071855602990262</v>
       </c>
       <c r="G30" t="n">
-        <v>1.685965836376435</v>
+        <v>1.691073528425056</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.179390362593121</v>
       </c>
       <c r="E31" t="n">
-        <v>4.71885828417818</v>
+        <v>4.720640073823493</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.05952237616531</v>
+        <v>-3.060177168119772</v>
       </c>
       <c r="G31" t="n">
-        <v>1.62715890798552</v>
+        <v>1.632305950512173</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.157958320005487</v>
       </c>
       <c r="E32" t="n">
-        <v>4.637106879056065</v>
+        <v>4.639900762996374</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.020110511387063</v>
+        <v>-3.021344542378162</v>
       </c>
       <c r="G32" t="n">
-        <v>1.58981373031354</v>
+        <v>1.594513751409744</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.119572021035182</v>
       </c>
       <c r="E33" t="n">
-        <v>4.558168246103714</v>
+        <v>4.5608865771262</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.950969360455248</v>
+        <v>-2.95215695788227</v>
       </c>
       <c r="G33" t="n">
-        <v>1.560138747819658</v>
+        <v>1.5648120105908</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.066651411791299</v>
       </c>
       <c r="E34" t="n">
-        <v>4.355075706920529</v>
+        <v>4.358842334677801</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.878451151498683</v>
+        <v>-2.879758374378923</v>
       </c>
       <c r="G34" t="n">
-        <v>1.509817356511675</v>
+        <v>1.514163223305586</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.002857838918918</v>
       </c>
       <c r="E35" t="n">
-        <v>4.130489936635983</v>
+        <v>4.133770192484773</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.8462341281239</v>
+        <v>-2.847839627627627</v>
       </c>
       <c r="G35" t="n">
-        <v>1.389343506986441</v>
+        <v>1.393155781298232</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9318198423359045</v>
       </c>
       <c r="E36" t="n">
-        <v>3.978603387506952</v>
+        <v>3.982255111868369</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.82063900319243</v>
+        <v>-2.822475096497427</v>
       </c>
       <c r="G36" t="n">
-        <v>1.362531665274206</v>
+        <v>1.366463565039215</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8571822813240385</v>
       </c>
       <c r="E37" t="n">
-        <v>3.782434958438368</v>
+        <v>3.785992241652508</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.757042334615396</v>
+        <v>-2.758652556176487</v>
       </c>
       <c r="G37" t="n">
-        <v>1.275812655805266</v>
+        <v>1.279500582606473</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7810597323290671</v>
       </c>
       <c r="E38" t="n">
-        <v>3.711684372955024</v>
+        <v>3.715425816406355</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.725420290468466</v>
+        <v>-2.727115509062107</v>
       </c>
       <c r="G38" t="n">
-        <v>1.232366580019124</v>
+        <v>1.236010434284935</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7049429975559469</v>
       </c>
       <c r="E39" t="n">
-        <v>3.501153019404571</v>
+        <v>3.504916499123601</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.742045867437204</v>
+        <v>-2.7443880078897</v>
       </c>
       <c r="G39" t="n">
-        <v>1.156926991573425</v>
+        <v>1.160844725166342</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6300146621357148</v>
       </c>
       <c r="E40" t="n">
-        <v>3.254839489169591</v>
+        <v>3.259087766777981</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.706543079146707</v>
+        <v>-2.709471541721887</v>
       </c>
       <c r="G40" t="n">
-        <v>1.092780990323058</v>
+        <v>1.096711316068945</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5574563612263683</v>
       </c>
       <c r="E41" t="n">
-        <v>3.082722072274482</v>
+        <v>3.086820818066349</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.645407389465827</v>
+        <v>-2.648941849402708</v>
       </c>
       <c r="G41" t="n">
-        <v>1.060767015414923</v>
+        <v>1.064645398529808</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4880356314186152</v>
       </c>
       <c r="E42" t="n">
-        <v>2.967629794124976</v>
+        <v>2.972090564314742</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.61468489724672</v>
+        <v>-2.6178793690534</v>
       </c>
       <c r="G42" t="n">
-        <v>0.97679152127441</v>
+        <v>0.9806226838156559</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4212715396856198</v>
       </c>
       <c r="E43" t="n">
-        <v>2.833882241349813</v>
+        <v>2.838169869436237</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.597519431719375</v>
+        <v>-2.600834315988835</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9247088025696916</v>
+        <v>0.9285525572639078</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3558233527112071</v>
       </c>
       <c r="E44" t="n">
-        <v>2.70389659427456</v>
+        <v>2.709059376992426</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.526103823157281</v>
+        <v>-2.529281767763187</v>
       </c>
       <c r="G44" t="n">
-        <v>0.86088390122007</v>
+        <v>0.8642381359675617</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2904479785367641</v>
       </c>
       <c r="E45" t="n">
-        <v>2.507616409848364</v>
+        <v>2.512377817690299</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.460749762231316</v>
+        <v>-2.463994602649877</v>
       </c>
       <c r="G45" t="n">
-        <v>0.83056986696294</v>
+        <v>0.8341617785977482</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2244590245638799</v>
       </c>
       <c r="E46" t="n">
-        <v>2.381181749910765</v>
+        <v>2.386160372391439</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.421398497189238</v>
+        <v>-2.424011368930597</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7673966095295369</v>
+        <v>0.7708515815007919</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1581045061574171</v>
       </c>
       <c r="E47" t="n">
-        <v>2.217872544018455</v>
+        <v>2.22315495218954</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.286770280715708</v>
+        <v>-2.289431160040267</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7112072749373449</v>
+        <v>0.7144765126522865</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.09180436017764608</v>
       </c>
       <c r="E48" t="n">
-        <v>2.129537016911939</v>
+        <v>2.134702947668048</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.245982723225444</v>
+        <v>-2.248027374064013</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6624646248080266</v>
+        <v>0.6657118262552699</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.02567086011756831</v>
       </c>
       <c r="E49" t="n">
-        <v>1.976037098183575</v>
+        <v>1.981284877933991</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.194045601289445</v>
+        <v>-2.196092613156697</v>
       </c>
       <c r="G49" t="n">
-        <v>0.588306287927066</v>
+        <v>0.5911615586131054</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.03984383270215613</v>
       </c>
       <c r="E50" t="n">
-        <v>1.88213583946414</v>
+        <v>1.888080909685292</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.146607026002125</v>
+        <v>-2.14865875992674</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5317297446310341</v>
+        <v>0.5345409427816771</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1039793061785379</v>
       </c>
       <c r="E51" t="n">
-        <v>1.757997673424518</v>
+        <v>1.764238659240476</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.096443823615832</v>
+        <v>-2.098552222228815</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4871220427333725</v>
+        <v>0.4894547390711402</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1662396375693574</v>
       </c>
       <c r="E52" t="n">
-        <v>1.645685113043229</v>
+        <v>1.652815419662721</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.979273053216648</v>
+        <v>-1.981081601187023</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4513414400679653</v>
+        <v>0.4538756108532594</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2259260128892387</v>
       </c>
       <c r="E53" t="n">
-        <v>1.602149318167173</v>
+        <v>1.608988431249225</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.919551619716258</v>
+        <v>-1.921561642134159</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3803704919076386</v>
+        <v>0.3829392911136013</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2829477838793886</v>
       </c>
       <c r="E54" t="n">
-        <v>1.5580358582736</v>
+        <v>1.565092185994391</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.908842780624489</v>
+        <v>-1.910987381677261</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3462599235299314</v>
+        <v>0.3485564174279091</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.337735166635599</v>
       </c>
       <c r="E55" t="n">
-        <v>1.502244750519097</v>
+        <v>1.509837818760252</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.844403224807999</v>
+        <v>-1.846088999286912</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3193803989954795</v>
+        <v>0.3214848625606586</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.390263546454613</v>
       </c>
       <c r="E56" t="n">
-        <v>1.444794626610743</v>
+        <v>1.451451153474724</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.783159714817311</v>
+        <v>-1.78455036071098</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2126744947242633</v>
+        <v>0.21466720293183</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4399090235378751</v>
       </c>
       <c r="E57" t="n">
-        <v>1.452836290301469</v>
+        <v>1.460955080929138</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.780469716139008</v>
+        <v>-1.782309744491808</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2129562441469761</v>
+        <v>0.2153503272304745</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4861339003738697</v>
       </c>
       <c r="E58" t="n">
-        <v>1.436974899616122</v>
+        <v>1.445624134687669</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.765969851993586</v>
+        <v>-1.767456513053654</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2082404828595593</v>
+        <v>0.2108124301037646</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5294591057618457</v>
       </c>
       <c r="E59" t="n">
-        <v>1.424875414630683</v>
+        <v>1.433507335491896</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.729678480123316</v>
+        <v>-1.73140124405158</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1345323154472907</v>
+        <v>0.137198703838774</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5702540690982694</v>
       </c>
       <c r="E60" t="n">
-        <v>1.457163268865924</v>
+        <v>1.465524458438274</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.761762498882349</v>
+        <v>-1.763549010585025</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1141771001706302</v>
+        <v>0.1169300596137851</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6086368192027498</v>
       </c>
       <c r="E61" t="n">
-        <v>1.454024674738051</v>
+        <v>1.462804553396666</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.780165143439036</v>
+        <v>-1.781872954185647</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1262482528118851</v>
+        <v>0.1290484328286791</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6439205045369598</v>
       </c>
       <c r="E62" t="n">
-        <v>1.463608877167651</v>
+        <v>1.473049843857212</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.823510482001414</v>
+        <v>-1.825592122289335</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03905074153006964</v>
+        <v>0.04196267690447592</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6756673565017965</v>
       </c>
       <c r="E63" t="n">
-        <v>1.449249100724024</v>
+        <v>1.459272454488467</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.784456706573262</v>
+        <v>-1.787034949893953</v>
       </c>
       <c r="G63" t="n">
-        <v>0.005100723102735104</v>
+        <v>0.007738779150035057</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7039318511086261</v>
       </c>
       <c r="E64" t="n">
-        <v>1.450094348992163</v>
+        <v>1.460504911460446</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.811978430909205</v>
+        <v>-1.814508666646696</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0248827671389217</v>
+        <v>-0.02257682912621619</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7287308779680729</v>
       </c>
       <c r="E65" t="n">
-        <v>1.45893718841563</v>
+        <v>1.470152074654898</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.837426385052834</v>
+        <v>-1.839980231077144</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02839440379854353</v>
+        <v>-0.02570125708199806</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7499076286688143</v>
       </c>
       <c r="E66" t="n">
-        <v>1.422470313413336</v>
+        <v>1.433979541228287</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.842785133151302</v>
+        <v>-1.845522352403244</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03697438202875358</v>
+        <v>-0.03397115354531187</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.766814368269256</v>
       </c>
       <c r="E67" t="n">
-        <v>1.387512922748369</v>
+        <v>1.39920473678139</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.854747678473187</v>
+        <v>-1.857553367556906</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05590825803887955</v>
+        <v>-0.05305928342932531</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7787130830429367</v>
       </c>
       <c r="E68" t="n">
-        <v>1.337386709811427</v>
+        <v>1.349002970926626</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.884879913521807</v>
+        <v>-1.887661205309145</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06277412944599316</v>
+        <v>-0.06047133947153025</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7855900231826514</v>
       </c>
       <c r="E69" t="n">
-        <v>1.234384472532631</v>
+        <v>1.245676485708842</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.906404625005594</v>
+        <v>-1.909142631267096</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08527158474674389</v>
+        <v>-0.08266658310099124</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.788698611018244</v>
       </c>
       <c r="E70" t="n">
-        <v>1.250754271394159</v>
+        <v>1.261585096967829</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.911363572247252</v>
+        <v>-1.91490747629886</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05447432661937462</v>
+        <v>-0.0516584064113677</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7891864785841917</v>
       </c>
       <c r="E71" t="n">
-        <v>1.243798680897131</v>
+        <v>1.254313128627419</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.94633512908431</v>
+        <v>-1.94949261144164</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.0738772603276482</v>
+        <v>-0.0715618782002149</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7871672872014532</v>
       </c>
       <c r="E72" t="n">
-        <v>1.227921550020571</v>
+        <v>1.237677320534392</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.975516656583664</v>
+        <v>-1.979114077285397</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1087197475967602</v>
+        <v>-0.1064027914502056</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7813234567715662</v>
       </c>
       <c r="E73" t="n">
-        <v>1.233150441541532</v>
+        <v>1.242221513737588</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.975273470629423</v>
+        <v>-1.978973202574041</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09614176079844644</v>
+        <v>-0.09381850857540662</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7705770498075535</v>
       </c>
       <c r="E74" t="n">
-        <v>1.228771520346073</v>
+        <v>1.236287461650284</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.983448925945459</v>
+        <v>-1.987203748559322</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07736371268132923</v>
+        <v>-0.07491453892858536</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7540042668610901</v>
       </c>
       <c r="E75" t="n">
-        <v>1.174187685257608</v>
+        <v>1.180861526331923</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.016132645989707</v>
+        <v>-2.019963808530953</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04942015122087812</v>
+        <v>-0.04710791713168741</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7313915425686894</v>
       </c>
       <c r="E76" t="n">
-        <v>1.210992974370982</v>
+        <v>1.215933820392745</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.019819785781354</v>
+        <v>-2.023555720165761</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02949621718345401</v>
+        <v>-0.02742480801982231</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7025472102521363</v>
       </c>
       <c r="E77" t="n">
-        <v>1.148164427125144</v>
+        <v>1.150671839585376</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.017044003060941</v>
+        <v>-2.021184460359522</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.03110329070630202</v>
+        <v>-0.02888707178351065</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.667828461399945</v>
       </c>
       <c r="E78" t="n">
-        <v>1.169284615694756</v>
+        <v>1.170400595251758</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.027695390454782</v>
+        <v>-2.031872837202714</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02553126301689758</v>
+        <v>-0.02382817432765024</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6282314915617074</v>
       </c>
       <c r="E79" t="n">
-        <v>1.157279571856596</v>
+        <v>1.156470526028248</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.004048901195482</v>
+        <v>-2.008883500926557</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04710791713168741</v>
+        <v>-0.04526788877888691</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5848381330979635</v>
       </c>
       <c r="E80" t="n">
-        <v>1.138446433070233</v>
+        <v>1.136025591661673</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.966849320292222</v>
+        <v>-1.970590763743554</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03046423894305393</v>
+        <v>-0.02906650996333893</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5385161972498954</v>
       </c>
       <c r="E81" t="n">
-        <v>1.164326455462659</v>
+        <v>1.161159528990602</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.920398442003518</v>
+        <v>-1.923976974475795</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.0102522594064318</v>
+        <v>-0.009299977838044888</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4896156098418802</v>
       </c>
       <c r="E82" t="n">
-        <v>1.224301306041579</v>
+        <v>1.21984840594742</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.948156269207655</v>
+        <v>-1.951682859048929</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01753232612276794</v>
+        <v>0.01831303960693308</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4381455705928296</v>
       </c>
       <c r="E83" t="n">
-        <v>1.311942690715602</v>
+        <v>1.30708841574551</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.844389845645468</v>
+        <v>-1.846935034564611</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01027924601181437</v>
+        <v>0.01106153351510081</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3836074156965667</v>
       </c>
       <c r="E84" t="n">
-        <v>1.307884869420888</v>
+        <v>1.30230811967412</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.783866449402775</v>
+        <v>-1.785715921870303</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02091646723356442</v>
+        <v>0.02163894201024143</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3259253364194032</v>
       </c>
       <c r="E85" t="n">
-        <v>1.417060409693425</v>
+        <v>1.411905497071166</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.755774143135361</v>
+        <v>-1.757184464268046</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01520277782324292</v>
+        <v>0.01556008016377818</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2658974521890698</v>
       </c>
       <c r="E86" t="n">
-        <v>1.661338733204564</v>
+        <v>1.657221099183242</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.65201637667834</v>
+        <v>-1.652409094449105</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03147026544188553</v>
+        <v>0.03152850414937365</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.205739977906543</v>
       </c>
       <c r="E87" t="n">
-        <v>1.597210046164532</v>
+        <v>1.593297034628978</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.532257131834178</v>
+        <v>-1.532240604633404</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0524598104244302</v>
+        <v>0.05240944181254858</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1478462506984328</v>
       </c>
       <c r="E88" t="n">
-        <v>1.743873999849087</v>
+        <v>1.741165112941329</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.333037466698953</v>
+        <v>-1.332536928618379</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08914390006546404</v>
+        <v>0.08912028977864452</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09578052463398949</v>
       </c>
       <c r="E89" t="n">
-        <v>1.910461887571067</v>
+        <v>1.909182210025449</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158662119374338</v>
+        <v>-1.157671274337479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1128187216689477</v>
+        <v>0.1128643682234654</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05421614300110864</v>
       </c>
       <c r="E90" t="n">
-        <v>1.931830771161845</v>
+        <v>1.93119486743684</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.919182980164045</v>
+        <v>-0.9174720213791911</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1415603108238982</v>
+        <v>0.1416862323536023</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02668727535143479</v>
       </c>
       <c r="E91" t="n">
-        <v>1.970224245568611</v>
+        <v>1.96994407016502</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6683480800031281</v>
+        <v>-0.6652551324297722</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09510785851607234</v>
+        <v>0.09517868937653086</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01503634321098458</v>
       </c>
       <c r="E92" t="n">
-        <v>1.984999563060261</v>
+        <v>1.98585740348137</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4634926394040861</v>
+        <v>-0.4598582292530028</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1062440437992747</v>
+        <v>0.1063416329847953</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01992406786504208</v>
       </c>
       <c r="E93" t="n">
-        <v>1.958497803114921</v>
+        <v>1.959339903344817</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2430386693129544</v>
+        <v>-0.2394672199267232</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09178667817012788</v>
+        <v>0.09152224295774937</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03873694253189829</v>
       </c>
       <c r="E94" t="n">
-        <v>1.846416623544463</v>
+        <v>1.84690929152943</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.06017227583848312</v>
+        <v>-0.05638361181351236</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06652996734973704</v>
+        <v>0.06629386448154194</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06544043723346546</v>
       </c>
       <c r="E95" t="n">
-        <v>1.794798240480528</v>
+        <v>1.795985050897989</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07107730859117474</v>
+        <v>0.07503124462388207</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0538402251938109</v>
+        <v>0.05374106198916896</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.09394978827971824</v>
       </c>
       <c r="E96" t="n">
-        <v>1.667143715723921</v>
+        <v>1.668097571311429</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1447351073915617</v>
+        <v>0.1481302666362073</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005388540321612679</v>
+        <v>-0.005601032902988272</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1181722110108793</v>
       </c>
       <c r="E97" t="n">
-        <v>1.501882726121198</v>
+        <v>1.503195458068363</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1495862343234104</v>
+        <v>0.1525595564435474</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02049754986697798</v>
+        <v>-0.02089105464730315</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1355116058257597</v>
       </c>
       <c r="E98" t="n">
-        <v>1.388654086611312</v>
+        <v>1.389799972531619</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1776982158298407</v>
+        <v>0.1804133988140844</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05840780040350504</v>
+        <v>-0.0592184202509749</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1467178190391646</v>
       </c>
       <c r="E99" t="n">
-        <v>1.249493482077997</v>
+        <v>1.250614183692363</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1809721756021462</v>
+        <v>0.1834386635652243</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09793929063497182</v>
+        <v>-0.09870583794704525</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1590188715099674</v>
       </c>
       <c r="E100" t="n">
-        <v>1.090832354650887</v>
+        <v>1.091789358276638</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2363981109205073</v>
+        <v>0.2388142302717038</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1448796888704009</v>
+        <v>-0.1456698464692939</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1758203341252017</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9099602434031041</v>
+        <v>0.9108637303787307</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2186116948498095</v>
+        <v>0.2210120740097931</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1703929648075638</v>
+        <v>-0.1714837600586251</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2019730173733061</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8497414198603824</v>
+        <v>0.8506732391801924</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2567407340441973</v>
+        <v>0.2588357534946486</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.208345713860366</v>
+        <v>-0.2094223429393356</v>
       </c>
     </row>
   </sheetData>
